--- a/documentation/Raphael -Budget for Sunlight Sensor.xlsx
+++ b/documentation/Raphael -Budget for Sunlight Sensor.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Engineering Technology\Semester 5\CENG 317 Hardware Production Technology\Week 3 [Budget]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OneDrive\Documents\Humber College\Computer Engineering Technology\Fall 2017 Semester 5\CENG 317 Hardware Production Technology\Hardware Project [Sunlight Sensor]\Week 3 [Budget]\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="09B169841E93436C0C30FB748B37BD2D34BFF3C4" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{94AC0FE2-E9CD-442E-9AFE-CFB987F06E26}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="6675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Grove I2C Sunlight Sensor / UV / IR</t>
   </si>
@@ -124,12 +125,15 @@
   <si>
     <t>Shipping 
 Fee</t>
+  </si>
+  <si>
+    <t>Shipping Cost (Canada Post)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -215,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -240,6 +244,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,14 +568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,8 +587,7 @@
     <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="35.42578125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.7109375" style="1"/>
   </cols>
@@ -758,9 +770,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="3">
+        <v>15.41</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -768,17 +788,17 @@
       </c>
       <c r="E20" s="3"/>
       <c r="I20" s="3">
-        <f>SUM(I14:I15,I10,I6)</f>
-        <v>185.8</v>
+        <f>SUM(I14:I15,I10,I6,I19)</f>
+        <v>201.21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1"/>
-    <hyperlink ref="J14" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
+    <hyperlink ref="J10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="landscape" r:id="rId4"/>
+  <pageSetup scale="79" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
--- a/documentation/Raphael -Budget for Sunlight Sensor.xlsx
+++ b/documentation/Raphael -Budget for Sunlight Sensor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OneDrive\Documents\Humber College\Computer Engineering Technology\Fall 2017 Semester 5\CENG 317 Hardware Production Technology\Hardware Project [Sunlight Sensor]\Week 3 [Budget]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Github\Sunlight_Sensor\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="09B169841E93436C0C30FB748B37BD2D34BFF3C4" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{94AC0FE2-E9CD-442E-9AFE-CFB987F06E26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D281D610-83B4-4E19-B327-42B8C5B3577C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="6675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Raphael Carlo Najera, N01104031</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parts for Hardware Project </t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Shipping Cost (Canada Post)</t>
+  </si>
+  <si>
+    <t>Raphael Carlo Najera</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,17 +594,17 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>18</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="6" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -715,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
@@ -776,7 +776,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="3">
         <v>15.41</v>
